--- a/grade.xlsx
+++ b/grade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/anh_pq224924_sis_hust_edu_vn/Documents/Desktop/Project II/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A541AF19-7E2C-4157-83E3-434329CF59CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{A541AF19-7E2C-4157-83E3-434329CF59CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC60033A-005C-4CA0-87F5-AA833C239EF1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BAD0AE4B-B909-4F22-A0F0-4F1B234F2DAA}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +641,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
